--- a/target/test-classes/amazon2.xlsx
+++ b/target/test-classes/amazon2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROSHJOSE\IdeaProjects\Amazon_addToCart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00DA007-952C-409B-85F6-8BF0EDCB97CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B636B2AF-022A-49E3-80F7-AF082BB9F95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F6A3F80C-6631-4C48-991C-101271D06E2F}"/>
   </bookViews>
